--- a/Le dictionnaire de données.xlsx
+++ b/Le dictionnaire de données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alima\Documents\Portfolio Campus contest\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A78F1F-619D-43EC-AE93-B1DE0F94637E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE970B34-3411-4893-82AE-D7D3A494BDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4191801B-50D1-4F84-B6C3-9ED7C9E51DD5}"/>
+    <workbookView xWindow="2568" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{4191801B-50D1-4F84-B6C3-9ED7C9E51DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Signification</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Séléction de toute les images</t>
+  </si>
+  <si>
+    <t>ID et CLASSE</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="B3:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,106 +493,106 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
